--- a/src/main/webapp/WEB-INF/books/data_format.xlsx
+++ b/src/main/webapp/WEB-INF/books/data_format.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/KEIKAI-SPACE/dev-ref/src/main/webapp/WEB-INF/books/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32B500E-3810-C945-8A3E-6A3D9FCA15A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17790" windowHeight="8835"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="20780" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -45,40 +49,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="19">
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="181" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="[$£-809]#,##0.00"/>
-    <numFmt numFmtId="184" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="186" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="187" formatCode="[DBNum1][$-404]m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="188" formatCode="[$-404]aaaa;@"/>
-    <numFmt numFmtId="189" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="190" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="191" formatCode="m/d;@"/>
-    <numFmt numFmtId="193" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="194" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="195" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="196" formatCode="[$-409]mmmmm;@"/>
-    <numFmt numFmtId="197" formatCode="[$-409]mmmmm\-yy;@"/>
-    <numFmt numFmtId="200" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="201" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="202" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="169" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="170" formatCode="[DBNum1][$-404]m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="171" formatCode="[$-404]aaaa;@"/>
+    <numFmt numFmtId="172" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="173" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="174" formatCode="m/d;@"/>
+    <numFmt numFmtId="175" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="178" formatCode="[$-409]mmmmm;@"/>
+    <numFmt numFmtId="179" formatCode="[$-409]mmmmm\-yy;@"/>
+    <numFmt numFmtId="180" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="181" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="182" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -116,73 +120,73 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="201" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="202" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -191,6 +195,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -237,7 +249,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +281,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +333,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,24 +526,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11">
+    <row r="1" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -515,7 +563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="3:11">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>123</v>
       </c>
@@ -535,7 +583,7 @@
         <v>0.5229166666666667</v>
       </c>
     </row>
-    <row r="3" spans="3:11">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>-123</v>
       </c>
@@ -555,7 +603,7 @@
         <v>0.5229166666666667</v>
       </c>
     </row>
-    <row r="4" spans="3:11">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E4" s="4">
         <v>987654.321</v>
       </c>
@@ -566,7 +614,7 @@
         <v>0.5229166666666667</v>
       </c>
     </row>
-    <row r="5" spans="3:11">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" s="1">
         <v>123.456</v>
       </c>
@@ -580,7 +628,7 @@
         <v>0.5229166666666667</v>
       </c>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>-123.456</v>
       </c>
@@ -595,7 +643,7 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="3:11">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E7" s="7">
         <v>98.76</v>
       </c>
@@ -604,7 +652,7 @@
       </c>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="3:11">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>123456.789</v>
       </c>
@@ -618,7 +666,7 @@
         <v>41274</v>
       </c>
     </row>
-    <row r="9" spans="3:11">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <v>-123456.789</v>
       </c>
@@ -629,33 +677,33 @@
         <v>41274</v>
       </c>
     </row>
-    <row r="10" spans="3:11">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="I10" s="16">
         <v>41274</v>
       </c>
     </row>
-    <row r="11" spans="3:11">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E11" s="7"/>
       <c r="I11" s="17">
         <v>41274</v>
       </c>
     </row>
-    <row r="12" spans="3:11">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
       <c r="I12" s="18">
         <v>41274</v>
       </c>
     </row>
-    <row r="13" spans="3:11">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="I13" s="19">
         <v>41274</v>
       </c>
     </row>
-    <row r="14" spans="3:11">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="I14" s="20">
         <v>41274</v>
       </c>
     </row>
-    <row r="15" spans="3:11">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
       <c r="I15" s="21">
         <v>41274</v>
       </c>
@@ -664,30 +712,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>